--- a/examples/sources/data/unsolved/to_schedule/2018-12-05.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-12-05.xlsx
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <v>43439</v>
@@ -4438,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85">
         <v>1</v>
